--- a/long_tech.xlsx
+++ b/long_tech.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_value</t>
+          <t>value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4391,18 +4391,18 @@
         </is>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4411,18 +4411,18 @@
         </is>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4431,18 +4431,18 @@
         </is>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4451,18 +4451,18 @@
         </is>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4471,18 +4471,18 @@
         </is>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4491,18 +4491,18 @@
         </is>
       </c>
       <c r="C207">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4511,18 +4511,18 @@
         </is>
       </c>
       <c r="C208">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4531,18 +4531,18 @@
         </is>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4555,14 +4555,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ath3</t>
+          <t>Ath29</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4571,18 +4571,18 @@
         </is>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Forwards</t>
+          <t>Backs</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4622,7 +4622,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4762,7 +4762,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Ath4</t>
+          <t>Ath3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4842,7 +4842,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="C227">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Ath5</t>
+          <t>Ath4</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5042,7 +5042,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5142,7 +5142,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5162,7 +5162,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Ath6</t>
+          <t>Ath5</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5222,7 +5222,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="C247">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ath7</t>
+          <t>Ath6</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C257">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5542,7 +5542,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Ath8</t>
+          <t>Ath7</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5582,7 +5582,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5591,18 +5591,18 @@
         </is>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5615,14 +5615,14 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5635,14 +5635,14 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5651,18 +5651,18 @@
         </is>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5675,14 +5675,14 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5691,18 +5691,18 @@
         </is>
       </c>
       <c r="C267">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5711,18 +5711,18 @@
         </is>
       </c>
       <c r="C268">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5731,18 +5731,18 @@
         </is>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5751,18 +5751,18 @@
         </is>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Backs</t>
+          <t>Forwards</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Ath9</t>
+          <t>Ath8</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5774,6 +5774,206 @@
         <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
+        <is>
+          <t>Forwards</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Defender Beaten</t>
+        </is>
+      </c>
+      <c r="C272">
+        <v>12</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Dominant Tackle</t>
+        </is>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Linebreak</t>
+        </is>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Missed Tackles</t>
+        </is>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Pen Conceded</t>
+        </is>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Tackles Completed</t>
+        </is>
+      </c>
+      <c r="C277">
+        <v>15</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Total Carries</t>
+        </is>
+      </c>
+      <c r="C278">
+        <v>18</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Tries Scored</t>
+        </is>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Try Assists</t>
+        </is>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Backs</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Ath9</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Turnovers Won</t>
+        </is>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
         <is>
           <t>Backs</t>
         </is>
